--- a/INTLINE/data/193/ABS/6321055001Table1.xlsx
+++ b/INTLINE/data/193/ABS/6321055001Table1.xlsx
@@ -12,38 +12,38 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2540826W">Data1!$C$1:$C$10,Data1!$C$11:$C$158</definedName>
-    <definedName name="A2540826W_Data">Data1!$C$11:$C$158</definedName>
-    <definedName name="A2540826W_Latest">Data1!$C$158</definedName>
-    <definedName name="A2540827X">Data1!$E$1:$E$10,Data1!$E$11:$E$158</definedName>
-    <definedName name="A2540827X_Data">Data1!$E$11:$E$158</definedName>
-    <definedName name="A2540827X_Latest">Data1!$E$158</definedName>
-    <definedName name="A2540828A">Data1!$F$1:$F$10,Data1!$F$11:$F$158</definedName>
-    <definedName name="A2540828A_Data">Data1!$F$11:$F$158</definedName>
-    <definedName name="A2540828A_Latest">Data1!$F$158</definedName>
-    <definedName name="A2540829C">Data1!$H$1:$H$10,Data1!$H$11:$H$158</definedName>
-    <definedName name="A2540829C_Data">Data1!$H$11:$H$158</definedName>
-    <definedName name="A2540829C_Latest">Data1!$H$158</definedName>
-    <definedName name="A2540830L">Data1!$J$1:$J$10,Data1!$J$11:$J$158</definedName>
-    <definedName name="A2540830L_Data">Data1!$J$11:$J$158</definedName>
-    <definedName name="A2540830L_Latest">Data1!$J$158</definedName>
-    <definedName name="A2540831R">Data1!$K$1:$K$10,Data1!$K$11:$K$158</definedName>
-    <definedName name="A2540831R_Data">Data1!$K$11:$K$158</definedName>
-    <definedName name="A2540831R_Latest">Data1!$K$158</definedName>
-    <definedName name="A2540832T">Data1!$B$1:$B$10,Data1!$B$11:$B$158</definedName>
-    <definedName name="A2540832T_Data">Data1!$B$11:$B$158</definedName>
-    <definedName name="A2540832T_Latest">Data1!$B$158</definedName>
-    <definedName name="A2540833V">Data1!$D$1:$D$10,Data1!$D$11:$D$158</definedName>
-    <definedName name="A2540833V_Data">Data1!$D$11:$D$158</definedName>
-    <definedName name="A2540833V_Latest">Data1!$D$158</definedName>
-    <definedName name="A2540835X">Data1!$G$1:$G$10,Data1!$G$11:$G$158</definedName>
-    <definedName name="A2540835X_Data">Data1!$G$11:$G$158</definedName>
-    <definedName name="A2540835X_Latest">Data1!$G$158</definedName>
-    <definedName name="A2540836A">Data1!$I$1:$I$10,Data1!$I$11:$I$158</definedName>
-    <definedName name="A2540836A_Data">Data1!$I$11:$I$158</definedName>
-    <definedName name="A2540836A_Latest">Data1!$I$158</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$158</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$158</definedName>
+    <definedName name="A2540826W">Data1!$C$1:$C$10,Data1!$C$11:$C$159</definedName>
+    <definedName name="A2540826W_Data">Data1!$C$11:$C$159</definedName>
+    <definedName name="A2540826W_Latest">Data1!$C$159</definedName>
+    <definedName name="A2540827X">Data1!$E$1:$E$10,Data1!$E$11:$E$159</definedName>
+    <definedName name="A2540827X_Data">Data1!$E$11:$E$159</definedName>
+    <definedName name="A2540827X_Latest">Data1!$E$159</definedName>
+    <definedName name="A2540828A">Data1!$F$1:$F$10,Data1!$F$11:$F$159</definedName>
+    <definedName name="A2540828A_Data">Data1!$F$11:$F$159</definedName>
+    <definedName name="A2540828A_Latest">Data1!$F$159</definedName>
+    <definedName name="A2540829C">Data1!$H$1:$H$10,Data1!$H$11:$H$159</definedName>
+    <definedName name="A2540829C_Data">Data1!$H$11:$H$159</definedName>
+    <definedName name="A2540829C_Latest">Data1!$H$159</definedName>
+    <definedName name="A2540830L">Data1!$J$1:$J$10,Data1!$J$11:$J$159</definedName>
+    <definedName name="A2540830L_Data">Data1!$J$11:$J$159</definedName>
+    <definedName name="A2540830L_Latest">Data1!$J$159</definedName>
+    <definedName name="A2540831R">Data1!$K$1:$K$10,Data1!$K$11:$K$159</definedName>
+    <definedName name="A2540831R_Data">Data1!$K$11:$K$159</definedName>
+    <definedName name="A2540831R_Latest">Data1!$K$159</definedName>
+    <definedName name="A2540832T">Data1!$B$1:$B$10,Data1!$B$11:$B$159</definedName>
+    <definedName name="A2540832T_Data">Data1!$B$11:$B$159</definedName>
+    <definedName name="A2540832T_Latest">Data1!$B$159</definedName>
+    <definedName name="A2540833V">Data1!$D$1:$D$10,Data1!$D$11:$D$159</definedName>
+    <definedName name="A2540833V_Data">Data1!$D$11:$D$159</definedName>
+    <definedName name="A2540833V_Latest">Data1!$D$159</definedName>
+    <definedName name="A2540835X">Data1!$G$1:$G$10,Data1!$G$11:$G$159</definedName>
+    <definedName name="A2540835X_Data">Data1!$G$11:$G$159</definedName>
+    <definedName name="A2540835X_Latest">Data1!$G$159</definedName>
+    <definedName name="A2540836A">Data1!$I$1:$I$10,Data1!$I$11:$I$159</definedName>
+    <definedName name="A2540836A_Data">Data1!$I$11:$I$159</definedName>
+    <definedName name="A2540836A_Latest">Data1!$I$159</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$159</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$159</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1232,10 +1232,10 @@
         <v>31107</v>
       </c>
       <c r="G12" s="11">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>19</v>
@@ -1264,10 +1264,10 @@
         <v>31107</v>
       </c>
       <c r="G13" s="11">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>19</v>
@@ -1296,10 +1296,10 @@
         <v>31107</v>
       </c>
       <c r="G14" s="11">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I14" s="22" t="s">
         <v>25</v>
@@ -1328,10 +1328,10 @@
         <v>31107</v>
       </c>
       <c r="G15" s="11">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I15" s="22" t="s">
         <v>25</v>
@@ -1360,10 +1360,10 @@
         <v>31107</v>
       </c>
       <c r="G16" s="11">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>25</v>
@@ -1392,10 +1392,10 @@
         <v>31107</v>
       </c>
       <c r="G17" s="11">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>19</v>
@@ -1424,10 +1424,10 @@
         <v>31107</v>
       </c>
       <c r="G18" s="11">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>19</v>
@@ -1456,10 +1456,10 @@
         <v>31107</v>
       </c>
       <c r="G19" s="11">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>25</v>
@@ -1488,10 +1488,10 @@
         <v>31107</v>
       </c>
       <c r="G20" s="11">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I20" s="22" t="s">
         <v>25</v>
@@ -1520,10 +1520,10 @@
         <v>31107</v>
       </c>
       <c r="G21" s="11">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="12">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>25</v>
@@ -1568,7 +1568,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K158"/>
+  <dimension ref="A1:K159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -1829,34 +1829,34 @@
         <v>16</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -1864,34 +1864,34 @@
         <v>17</v>
       </c>
       <c r="B9" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D9" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E9" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F9" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G9" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H9" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I9" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J9" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K9" s="1">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
@@ -7095,6 +7095,41 @@
       </c>
       <c r="K158" s="10">
         <v>116.6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A159" s="11">
+        <v>44621</v>
+      </c>
+      <c r="B159" s="9">
+        <v>22</v>
+      </c>
+      <c r="C159" s="9">
+        <v>30</v>
+      </c>
+      <c r="D159" s="10">
+        <v>10.1</v>
+      </c>
+      <c r="E159" s="10">
+        <v>11.4</v>
+      </c>
+      <c r="F159" s="10">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G159" s="9">
+        <v>128</v>
+      </c>
+      <c r="H159" s="9">
+        <v>134</v>
+      </c>
+      <c r="I159" s="10">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="J159" s="10">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="K159" s="10">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
